--- a/biology/Botanique/Winklerella_dichotoma/Winklerella_dichotoma.xlsx
+++ b/biology/Botanique/Winklerella_dichotoma/Winklerella_dichotoma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Winklerella dichotoma Engl. est une espèce de plantes à fleurs de la famille des Podostemaceae et du genre Winklerella. C'est une plante aquatique[2] d'eau douce endémique du Cameroun.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Winklerella dichotoma Engl. est une espèce de plantes à fleurs de la famille des Podostemaceae et du genre Winklerella. C'est une plante aquatique d'eau douce endémique du Cameroun.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce n'a été observée que sur un seul site, les chutes de la Sanaga à Édéa, dans la région du Littoral.
 </t>
@@ -542,9 +556,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La construction du barrage hydroélectrique d'Édéa constitue une source d'inquiétude pour la survie de l'espèce qui est classée « en danger critique d'extinction » selon les critères de l'UICN. Des actions sont entreprises pour tenter de trouver de nouvelles implantations de Winklerella dichotoma et d'autres plantes aquatiques d'eau douce[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La construction du barrage hydroélectrique d'Édéa constitue une source d'inquiétude pour la survie de l'espèce qui est classée « en danger critique d'extinction » selon les critères de l'UICN. Des actions sont entreprises pour tenter de trouver de nouvelles implantations de Winklerella dichotoma et d'autres plantes aquatiques d'eau douce.
 </t>
         </is>
       </c>
